--- a/biology/Botanique/Basidiocarpe/Basidiocarpe.xlsx
+++ b/biology/Botanique/Basidiocarpe/Basidiocarpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La baside est, chez les champignons basidiomycètes (auxquels elle a donné son nom), l'organe principal de reproduction. L'ensemble des basides constitue le basidiome (synonyme : basidiocarpe), c'est-à-dire ce que l'on désigne dans le langage courant par « un champignon ».
 C'est une cellule spécialisée terminée par un nombre variable de pointes (stérigmates), portant chacune une spore nommée basidiospore.
@@ -513,7 +525,9 @@
           <t>Nombre de spores</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence des stérigmates est constant chez les Homobasidiomycètes. Leur longueur varie. Dans la très grande majorité des cas, les stérigmates sont au nombre de quatre (parfois deux ou huit).
 Les basides à une seule spore se rencontrent dans plusieurs clavaires inférieures, à deux spores chez les genres Pistillaria, Corticium, etc., à trois stérigmates dans beaucoup d'agarics, par suite de l'avortement du quatrième. Les chanterelles ont des basides à cinq, sept et huit stérigmates.
